--- a/Premat.xlsx
+++ b/Premat.xlsx
@@ -1,26 +1,112 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alves\Desktop\MCL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDB2611-D925-4675-8EE1-B09296FDCBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="13104" yWindow="672" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+  <si>
+    <t>Ian</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>Hexaedron 8 (Ian)</t>
+  </si>
+  <si>
+    <t>1q</t>
+  </si>
+  <si>
+    <t>Variação E2 (%)</t>
+  </si>
+  <si>
+    <t>Hexaedron 20 (Ian)</t>
+  </si>
+  <si>
+    <t>G23</t>
+  </si>
+  <si>
+    <t>G31</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>v21</t>
+  </si>
+  <si>
+    <t>v31</t>
+  </si>
+  <si>
+    <t>v32</t>
+  </si>
+  <si>
+    <t>v12</t>
+  </si>
+  <si>
+    <t>v13</t>
+  </si>
+  <si>
+    <t>v23</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -29,15 +115,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,15 +137,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +214,1907 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Estudo convergência E2 (8 nós por elemento)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13814566929133859"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Estudo convergência E2 (8 nós por elemento</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$J$3:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>31.478000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.071000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.827999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.809000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.783000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5328-4C2A-B9A0-7A1A86B68749}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="746893791"/>
+        <c:axId val="767180735"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="746893791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767180735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="767180735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="746893791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Estudo convergência E2 (8 nós por elemento)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13814566929133859"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Estudo convergência E2 (20 nós por elemento</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$N$3:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$P$3:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #\,##0.0000_-;\-* #\,##0.0000_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>27.931999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.748999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.747</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.747</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-43FB-4359-9B21-CC04E481AF72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="746893791"/>
+        <c:axId val="767180735"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="746893791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767180735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="767180735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #\,##0.0000_-;\-* #\,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="746893791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8DB0A6-D68C-002E-3BB1-B42397434B77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{432C8985-C3E8-4210-80F4-653B21C59233}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +2379,453 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19:U20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" customWidth="1"/>
+    <col min="18" max="27" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:27" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>174</v>
+      </c>
+      <c r="D3" s="1">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E3" s="1">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>174</v>
+      </c>
+      <c r="J3" s="1">
+        <v>31.478000000000002</v>
+      </c>
+      <c r="K3" s="1">
+        <v>31.478000000000002</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="N3" s="5">
+        <v>1</v>
+      </c>
+      <c r="O3" s="10">
+        <v>175.67</v>
+      </c>
+      <c r="P3" s="10">
+        <v>27.931999999999999</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>27.931999999999999</v>
+      </c>
+      <c r="R3" s="10"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>174</v>
+      </c>
+      <c r="D4" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>175</v>
+      </c>
+      <c r="J4" s="1">
+        <v>28.071000000000002</v>
+      </c>
+      <c r="K4" s="1">
+        <v>28.071000000000002</v>
+      </c>
+      <c r="L4" s="4">
+        <f>(J4-J3)/J3*-100</f>
+        <v>10.823432238388715</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2</v>
+      </c>
+      <c r="O4" s="7">
+        <v>175.67</v>
+      </c>
+      <c r="P4" s="7">
+        <v>27.748999999999999</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>27.748999999999999</v>
+      </c>
+      <c r="R4" s="7">
+        <f>(P4-P3)/P3*-100</f>
+        <v>0.65516253759129262</v>
+      </c>
+      <c r="S4" s="8">
+        <v>4.4565999999999999</v>
+      </c>
+      <c r="T4" s="8">
+        <v>6.5311000000000003</v>
+      </c>
+      <c r="U4" s="8">
+        <v>6.5311000000000003</v>
+      </c>
+      <c r="V4" s="8">
+        <v>5.8013000000000002E-2</v>
+      </c>
+      <c r="W4" s="8">
+        <v>5.8013000000000002E-2</v>
+      </c>
+      <c r="X4" s="8">
+        <v>0.33572999999999997</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>0.36726999999999999</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>0.36726999999999999</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>0.33572999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>176</v>
+      </c>
+      <c r="D5" s="1">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>176</v>
+      </c>
+      <c r="J5" s="1">
+        <v>27.940999999999999</v>
+      </c>
+      <c r="K5" s="1">
+        <v>27.940999999999999</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" ref="L5:L8" si="0">(J5-J4)/J4*-100</f>
+        <v>0.4631113961027486</v>
+      </c>
+      <c r="N5" s="6">
+        <v>3</v>
+      </c>
+      <c r="O5" s="11">
+        <v>175.67</v>
+      </c>
+      <c r="P5" s="11">
+        <v>27.747</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>27.747</v>
+      </c>
+      <c r="R5" s="11">
+        <f t="shared" ref="R5:R8" si="1">(P5-P4)/P4*-100</f>
+        <v>7.2074669357414384E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>176</v>
+      </c>
+      <c r="D6" s="1">
+        <v>27.9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>27.9</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>176</v>
+      </c>
+      <c r="J6" s="1">
+        <v>27.827999999999999</v>
+      </c>
+      <c r="K6" s="1">
+        <v>27.827999999999999</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.40442360688593659</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4</v>
+      </c>
+      <c r="O6" s="7">
+        <v>175.67</v>
+      </c>
+      <c r="P6" s="7">
+        <v>27.747</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>27.747</v>
+      </c>
+      <c r="R6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>176</v>
+      </c>
+      <c r="D7" s="1">
+        <v>27.9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>27.9</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>176</v>
+      </c>
+      <c r="J7" s="1">
+        <v>27.809000000000001</v>
+      </c>
+      <c r="K7" s="1">
+        <v>27.809000000000001</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="0"/>
+        <v>6.8276555986769988E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>5</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>176</v>
+      </c>
+      <c r="D8" s="1">
+        <v>27.8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>27.8</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1">
+        <v>176</v>
+      </c>
+      <c r="J8" s="1">
+        <v>27.783000000000001</v>
+      </c>
+      <c r="K8" s="1">
+        <v>27.783000000000001</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="0"/>
+        <v>9.3494911719226872E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <v>6</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="H9" s="1">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="N9" s="1">
+        <v>7</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>176</v>
+      </c>
+      <c r="D10" s="1">
+        <v>27.7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>27.7</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="N10" s="1">
+        <v>8</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>